--- a/xxxxx005_RPC/550_XDR_Format.xlsx
+++ b/xxxxx005_RPC/550_XDR_Format.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199AB47-4DE3-444F-ABEF-A75309EA5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C6F1E-824E-4709-B507-63FD08C5057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40140" yWindow="4125" windowWidth="16470" windowHeight="15345" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$AI$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$AI$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>+0</t>
     <phoneticPr fontId="1"/>
@@ -156,12 +156,44 @@
     <t>&lt;--------------- R バイト ---------------&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>"XDR の 整数型のデータ形式" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"XDR の文字列型のデータ形式" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +209,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -647,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +715,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -672,6 +736,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,6 +769,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,60 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -767,6 +825,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,13 +852,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>82886</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>156103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -848,13 +909,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>153723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>110605</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>153723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -905,13 +966,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348855</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>148037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>100277</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>148037</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -962,7 +1023,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113110</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1017,7 +1078,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>158753</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -1082,7 +1143,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15479</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>165628</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -1147,7 +1208,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>211931</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="711220" cy="328423"/>
@@ -1511,10 +1572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21:U21"/>
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1538,22 +1599,22 @@
       <c r="G3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" t="s">
         <v>10</v>
       </c>
@@ -1565,125 +1626,125 @@
     </row>
     <row r="4" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
     </row>
     <row r="5" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="17" t="s">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="18"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="37"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="32"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
@@ -1717,332 +1778,370 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="AH7" s="41" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="C10" s="35"/>
-      <c r="AH10" s="36"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="C11" s="35"/>
-      <c r="R11" s="36"/>
-      <c r="AH11" s="36"/>
+      <c r="C11" s="4"/>
+      <c r="AH11" s="5"/>
     </row>
-    <row r="12" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="1"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="39"/>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="C12" s="4"/>
+      <c r="R12" s="5"/>
+      <c r="AH12" s="5"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="10"/>
+    <row r="13" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="1"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="40"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="21"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="5"/>
+      <c r="C16" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="8"/>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="5"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="8"/>
+    </row>
+    <row r="19" spans="2:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="19">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17">
         <v>0</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20">
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18">
         <v>0</v>
       </c>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20">
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18">
         <v>0</v>
       </c>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="6"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="9"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
-      <c r="K19" s="11" t="s">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="K20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="13"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="32"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AH21" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C13:AH13"/>
-    <mergeCell ref="AA18:AH18"/>
-    <mergeCell ref="C15:AH17"/>
-    <mergeCell ref="K19:AH19"/>
+    <mergeCell ref="K20:AH20"/>
     <mergeCell ref="K3:R3"/>
     <mergeCell ref="S3:Z3"/>
     <mergeCell ref="C6:AH6"/>
@@ -2050,28 +2149,31 @@
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:Z5"/>
     <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AI14:AI18"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="AI15:AI19"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="S4:Z4"/>
     <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="AA14:AH14"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S15:Z15"/>
+    <mergeCell ref="AA15:AH15"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="C14:AH14"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="C16:AH18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B13:B14 AF3:AH3 AC3:AD3 C4:AH4" numberStoredAsText="1"/>
+    <ignoredError sqref="B14:B15 AF3:AH3 AC3:AD3 C4:AH4" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
